--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126052a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126052a.xlsx
@@ -1,43 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>local de ocorrência da última agressão física</t>
+  </si>
+  <si>
+    <t>unnamed: 1_level_1</t>
+  </si>
+  <si>
+    <t>própria residência</t>
+  </si>
+  <si>
+    <t>via pública</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               brasil</t>
+  </si>
+  <si>
+    <t>situação do domicílio</t>
+  </si>
+  <si>
+    <t>urbana</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>grandes regiões</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>nordeste</t>
+  </si>
+  <si>
+    <t>sudeste</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,37 +99,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -84,83 +118,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -448,205 +415,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Local de ocorrência da última agressão física</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Própria residência </t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Via pública</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               Brasil</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2.74</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.71</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Situação do domicílio</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>2.91</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.72</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.82</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>6.63</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6.34</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>8.960000000000001</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grandes Regiões</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Norte</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>8.16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.79</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6.38</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>4.76</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.82</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>5.48</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Sudeste</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>4.82</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3.18</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>4.85</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Sul</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>7.79</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>4.64</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>5.68</v>
       </c>
     </row>
@@ -654,6 +581,6 @@
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126052a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126052a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>total</t>
   </si>
@@ -22,9 +22,6 @@
     <t>local de ocorrência da última agressão física</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>própria residência</t>
   </si>
   <si>
@@ -37,16 +34,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões</t>
   </si>
   <si>
     <t>norte</t>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,21 +427,21 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -467,113 +458,103 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.91</v>
+      </c>
+      <c r="D5">
+        <v>1.72</v>
+      </c>
+      <c r="E5">
+        <v>2.82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.91</v>
+        <v>6.63</v>
       </c>
       <c r="D6">
-        <v>1.72</v>
+        <v>6.34</v>
       </c>
       <c r="E6">
-        <v>2.82</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.63</v>
+        <v>8.16</v>
       </c>
       <c r="D7">
-        <v>6.34</v>
+        <v>3.79</v>
       </c>
       <c r="E7">
-        <v>8.960000000000001</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.76</v>
+      </c>
+      <c r="D8">
+        <v>2.82</v>
+      </c>
+      <c r="E8">
+        <v>5.48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.16</v>
+        <v>4.82</v>
       </c>
       <c r="D9">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="E9">
-        <v>6.38</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.76</v>
+        <v>7.79</v>
       </c>
       <c r="D10">
-        <v>2.82</v>
+        <v>4.64</v>
       </c>
       <c r="E10">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>4.82</v>
-      </c>
-      <c r="D11">
-        <v>3.18</v>
-      </c>
-      <c r="E11">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>7.79</v>
-      </c>
-      <c r="D12">
-        <v>4.64</v>
-      </c>
-      <c r="E12">
         <v>5.68</v>
       </c>
     </row>
